--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_25.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_25.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_2</t>
+          <t>model_1_25_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9997635763523882</v>
+        <v>0.9495091120713366</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8247113443382014</v>
+        <v>0.7332528687915318</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8115803075140711</v>
+        <v>0.7234905166966168</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997585375365839</v>
+        <v>0.8609696048054054</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0009841197449466208</v>
+        <v>0.176996341921737</v>
       </c>
       <c r="G2" t="n">
-        <v>1.172156047540491</v>
+        <v>1.783739294648627</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6739663148206745</v>
+        <v>0.9890583888351645</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001533849345906062</v>
+        <v>0.3920790251506932</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06809977329255679</v>
+        <v>1.484225543025324</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03137068288938927</v>
+        <v>0.420709331869091</v>
       </c>
       <c r="L2" t="n">
-        <v>1.015131113447154</v>
+        <v>0.9312464504801179</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03186473978571915</v>
+        <v>0.4273350832909883</v>
       </c>
       <c r="N2" t="n">
-        <v>143.8475259525939</v>
+        <v>37.46325242746141</v>
       </c>
       <c r="O2" t="n">
-        <v>285.1826984958103</v>
+        <v>74.42783601568723</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_1</t>
+          <t>model_1_25_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997620012856755</v>
+        <v>0.9495512353334182</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8246781761555485</v>
+        <v>0.7331757790035651</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8115749256142183</v>
+        <v>0.7239017062301103</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999755272745161</v>
+        <v>0.8620779949733628</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0009906760021875147</v>
+        <v>0.1768486783807673</v>
       </c>
       <c r="G3" t="n">
-        <v>1.172377843330616</v>
+        <v>1.784254794415726</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6739855655643875</v>
+        <v>0.9875875877159972</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001554588379699669</v>
+        <v>0.3889532587603214</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06797116773742874</v>
+        <v>1.487985607507272</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03147500599185828</v>
+        <v>0.4205338017101209</v>
       </c>
       <c r="L3" t="n">
-        <v>1.015231917716768</v>
+        <v>0.9313038098157185</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0319707058727672</v>
+        <v>0.4271567887074802</v>
       </c>
       <c r="N3" t="n">
-        <v>143.8342460347317</v>
+        <v>37.46492167293408</v>
       </c>
       <c r="O3" t="n">
-        <v>285.1694185779481</v>
+        <v>74.4295052611599</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_4</t>
+          <t>model_1_25_0</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997674452766921</v>
+        <v>0.9495489426508168</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8246762860866999</v>
+        <v>0.7330969627204129</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8127192137437882</v>
+        <v>0.7264256388343664</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9995899899698912</v>
+        <v>0.8748994455124526</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0009680152442434012</v>
+        <v>0.1768567154038874</v>
       </c>
       <c r="G4" t="n">
-        <v>1.17239048222971</v>
+        <v>1.78478183926408</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6698925132745538</v>
+        <v>0.9785596271365944</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002604519177017998</v>
+        <v>0.3527955407206941</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05864026459422819</v>
+        <v>1.535103847078501</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03111294335551365</v>
+        <v>0.4205433573412941</v>
       </c>
       <c r="L4" t="n">
-        <v>1.014883502291703</v>
+        <v>0.931300687864942</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03160294111183</v>
+        <v>0.4271664948302922</v>
       </c>
       <c r="N4" t="n">
-        <v>143.8805254452527</v>
+        <v>37.46483078347339</v>
       </c>
       <c r="O4" t="n">
-        <v>285.2156979884691</v>
+        <v>74.42941437169921</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_0</t>
+          <t>model_1_25_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9997141966335412</v>
+        <v>0.9496264533908658</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8246719016687183</v>
+        <v>0.7330816409894767</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8112573995298917</v>
+        <v>0.7262909014829164</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997343762951119</v>
+        <v>0.8730366216364345</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001189664142929132</v>
+        <v>0.1765850006844371</v>
       </c>
       <c r="G5" t="n">
-        <v>1.172419800852941</v>
+        <v>1.784884295749402</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6751213379568034</v>
+        <v>0.9790415748302104</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001687329534519577</v>
+        <v>0.3580488823969103</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06704096162870318</v>
+        <v>1.527214992647509</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03449150827274928</v>
+        <v>0.4202201811960453</v>
       </c>
       <c r="L5" t="n">
-        <v>1.018291415453362</v>
+        <v>0.9314062344045833</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03503471504918623</v>
+        <v>0.4268382289838134</v>
       </c>
       <c r="N5" t="n">
-        <v>143.4681684890531</v>
+        <v>37.46790585651214</v>
       </c>
       <c r="O5" t="n">
-        <v>284.8033410322695</v>
+        <v>74.43248944473795</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_8</t>
+          <t>model_1_25_7</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9997773901285943</v>
+        <v>0.9495520642250264</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8246254070197899</v>
+        <v>0.7330546716398409</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8138669682599199</v>
+        <v>0.7241141097562587</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9993809639144732</v>
+        <v>0.8625134239216181</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0009266195327045512</v>
+        <v>0.1768457726924636</v>
       </c>
       <c r="G6" t="n">
-        <v>1.172730710784413</v>
+        <v>1.785064639914598</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6657870619209816</v>
+        <v>0.9868278326188284</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003932321742454155</v>
+        <v>0.3877253074384873</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04403152188946172</v>
+        <v>1.489060527092727</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03044042596128627</v>
+        <v>0.4205303469340395</v>
       </c>
       <c r="L6" t="n">
-        <v>1.014247031769962</v>
+        <v>0.9313049385191848</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03091983224091429</v>
+        <v>0.4271532795221289</v>
       </c>
       <c r="N6" t="n">
-        <v>143.9679350104584</v>
+        <v>37.46495453393368</v>
       </c>
       <c r="O6" t="n">
-        <v>285.3031075536748</v>
+        <v>74.4295381221595</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_7</t>
+          <t>model_1_25_3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997775268928807</v>
+        <v>0.9495994000632541</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8246170818462839</v>
+        <v>0.7325909061748264</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8139443362856108</v>
+        <v>0.7264523684460586</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9994734966977546</v>
+        <v>0.8711911148280603</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0009260502477114533</v>
+        <v>0.1766798364106548</v>
       </c>
       <c r="G7" t="n">
-        <v>1.172786381257982</v>
+        <v>1.788165841714594</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6655103209791409</v>
+        <v>0.978464016865443</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00334452293056735</v>
+        <v>0.3632533882844434</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04994557058739559</v>
+        <v>1.517493161613094</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03043107371933257</v>
+        <v>0.4203330065681909</v>
       </c>
       <c r="L7" t="n">
-        <v>1.014238278855636</v>
+        <v>0.931369395830814</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03091033271049863</v>
+        <v>0.4269528312427863</v>
       </c>
       <c r="N7" t="n">
-        <v>143.969164123206</v>
+        <v>37.46683203632357</v>
       </c>
       <c r="O7" t="n">
-        <v>285.3043366664223</v>
+        <v>74.43141562454939</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_5</t>
+          <t>model_1_25_2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9997691661909022</v>
+        <v>0.9495880965354762</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8245987320271759</v>
+        <v>0.732560067142064</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8134589290059493</v>
+        <v>0.7265036055571092</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999507086658608</v>
+        <v>0.8714549875689688</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0009608518929011889</v>
+        <v>0.1767194610468926</v>
       </c>
       <c r="G8" t="n">
-        <v>1.17290908658285</v>
+        <v>1.788372062468677</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6672465946729588</v>
+        <v>0.9782807446901135</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003131148401230653</v>
+        <v>0.3625092418920345</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05753862434131653</v>
+        <v>1.518363791925035</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03099761108377852</v>
+        <v>0.4203801387397989</v>
       </c>
       <c r="L8" t="n">
-        <v>1.014773363782261</v>
+        <v>0.9313540037929888</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03148579247210501</v>
+        <v>0.4270007056989822</v>
       </c>
       <c r="N8" t="n">
-        <v>143.89538055712</v>
+        <v>37.46638353926442</v>
       </c>
       <c r="O8" t="n">
-        <v>285.2305531003364</v>
+        <v>74.43096712749025</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_9</t>
+          <t>model_1_25_6</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9997674960282049</v>
+        <v>0.9495789264015791</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8245528574745008</v>
+        <v>0.7325459564390659</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8137486253252898</v>
+        <v>0.7253779160216967</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9993453349661576</v>
+        <v>0.8657287532847526</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009678039897165372</v>
+        <v>0.1767516070483057</v>
       </c>
       <c r="G9" t="n">
-        <v>1.173215849927821</v>
+        <v>1.788466420804599</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6662103677362358</v>
+        <v>0.9823072708870548</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004158648593824404</v>
+        <v>0.3786577708003896</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04396662534998296</v>
+        <v>1.498319961910778</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03110954820817135</v>
+        <v>0.4204183714448094</v>
       </c>
       <c r="L9" t="n">
-        <v>1.014880254194885</v>
+        <v>0.9313415168021504</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03159949249431095</v>
+        <v>0.4270395405308779</v>
       </c>
       <c r="N9" t="n">
-        <v>143.8809619623076</v>
+        <v>37.46601976407145</v>
       </c>
       <c r="O9" t="n">
-        <v>285.2161345055241</v>
+        <v>74.43060335229727</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_6</t>
+          <t>model_1_25_5</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9997631817142802</v>
+        <v>0.9495610908025689</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8245128547424374</v>
+        <v>0.7323554257587749</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8138394717624051</v>
+        <v>0.7256804449007042</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9994605539851603</v>
+        <v>0.8664525747224583</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0009857624366068169</v>
+        <v>0.1768141299293704</v>
       </c>
       <c r="G10" t="n">
-        <v>1.173483348381325</v>
+        <v>1.789740500341018</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6658854152982534</v>
+        <v>0.9812251426284773</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003426739317190231</v>
+        <v>0.3766165250477501</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05174346346988858</v>
+        <v>1.500033854292281</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03139685392848807</v>
+        <v>0.4204927228019177</v>
       </c>
       <c r="L10" t="n">
-        <v>1.015156370286064</v>
+        <v>0.93131723002903</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03189132299252232</v>
+        <v>0.4271150628475366</v>
       </c>
       <c r="N10" t="n">
-        <v>143.8441903377915</v>
+        <v>37.46531242311414</v>
       </c>
       <c r="O10" t="n">
-        <v>285.1793628810079</v>
+        <v>74.42989601133996</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_3</t>
+          <t>model_1_25_4</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9997527918891677</v>
+        <v>0.9495438827298608</v>
       </c>
       <c r="C11" t="n">
-        <v>0.824432620705921</v>
+        <v>0.7321487308634378</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8127590678879828</v>
+        <v>0.7265119665206654</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9996204642310874</v>
+        <v>0.8696829837383958</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001029010361012991</v>
+        <v>0.1768744530103419</v>
       </c>
       <c r="G11" t="n">
-        <v>1.174019873752953</v>
+        <v>1.79112267005788</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6697499573116461</v>
+        <v>0.9782508380082697</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002410936601319011</v>
+        <v>0.3675064623450293</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06298004136447059</v>
+        <v>1.510027942582359</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03207819136131261</v>
+        <v>0.4205644457278122</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01582131909327</v>
+        <v>0.9312937977598105</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03258339080882628</v>
+        <v>0.4271879153378174</v>
       </c>
       <c r="N11" t="n">
-        <v>143.7583155063385</v>
+        <v>37.4646302062209</v>
       </c>
       <c r="O11" t="n">
-        <v>285.0934880495549</v>
+        <v>74.42921379444672</v>
       </c>
     </row>
   </sheetData>
